--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_107__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_107__Reeval_LHS_Modell_1.2.xlsx
@@ -5876,34 +5876,34 @@
                   <c:v>54.17978668212891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-39.17088317871094</c:v>
+                  <c:v>-39.17087554931641</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>15.13246059417725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.76861572265625</c:v>
+                  <c:v>46.76860809326172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.9395751953125</c:v>
+                  <c:v>78.93955993652344</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>54.17978668212891</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.49979782104492</c:v>
+                  <c:v>41.49979400634766</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>54.17978668212891</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.742195606231689</c:v>
+                  <c:v>4.74219274520874</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>54.17978668212891</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71.97975921630859</c:v>
+                  <c:v>71.97976684570312</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>54.17978668212891</c:v>
@@ -5915,13 +5915,13 @@
                   <c:v>35.91014099121094</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.71046257019043</c:v>
+                  <c:v>18.71045684814453</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>54.17978668212891</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.79474067687988</c:v>
+                  <c:v>19.79473686218262</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>54.17978668212891</c:v>
@@ -5930,19 +5930,19 @@
                   <c:v>54.17978668212891</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>76.06414794921875</c:v>
+                  <c:v>76.06415557861328</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>79.43177795410156</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4.31623649597168</c:v>
+                  <c:v>-4.31623363494873</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>67.75093841552734</c:v>
+                  <c:v>67.75093078613281</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.5609884262085</c:v>
+                  <c:v>14.56098461151123</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2.028921604156494</c:v>
@@ -5960,7 +5960,7 @@
                   <c:v>58.55146789550781</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.992487907409668</c:v>
+                  <c:v>8.992481231689453</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>8.529584884643555</c:v>
@@ -6005,7 +6005,7 @@
                   <c:v>55.72455215454102</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>26.40984153747559</c:v>
+                  <c:v>26.40983581542969</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>54.17978668212891</c:v>
@@ -6014,7 +6014,7 @@
                   <c:v>58.55824279785156</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>30.62688064575195</c:v>
+                  <c:v>30.62687683105469</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>54.17978668212891</c:v>
@@ -6056,13 +6056,13 @@
                   <c:v>54.17978668212891</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>30.95647811889648</c:v>
+                  <c:v>30.95648002624512</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>80.84327697753906</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.340054988861084</c:v>
+                  <c:v>5.340048789978027</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>20.31732749938965</c:v>
@@ -6071,7 +6071,7 @@
                   <c:v>67.33917999267578</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>34.56634902954102</c:v>
+                  <c:v>34.56634521484375</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>67.48551940917969</c:v>
@@ -6083,7 +6083,7 @@
                   <c:v>46.4419059753418</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>27.38255310058594</c:v>
+                  <c:v>27.38254928588867</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>54.17978668212891</c:v>
@@ -6125,10 +6125,10 @@
                   <c:v>54.17978668212891</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>26.44375038146973</c:v>
+                  <c:v>26.44374465942383</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>54.60414123535156</c:v>
+                  <c:v>54.60413360595703</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>54.17978668212891</c:v>
@@ -6140,10 +6140,10 @@
                   <c:v>54.17978668212891</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>24.19018363952637</c:v>
+                  <c:v>24.19017791748047</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>47.54854965209961</c:v>
+                  <c:v>47.54855346679688</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>52.46683502197266</c:v>
@@ -6158,13 +6158,13 @@
                   <c:v>54.17978668212891</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>34.91579818725586</c:v>
+                  <c:v>34.91579055786133</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>54.17978668212891</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>10.52472496032715</c:v>
+                  <c:v>10.5247220993042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6891,7 +6891,7 @@
         <v>81.04689999999999</v>
       </c>
       <c r="F3">
-        <v>-39.17088317871094</v>
+        <v>-39.17087554931641</v>
       </c>
       <c r="G3">
         <v>120</v>
@@ -6955,7 +6955,7 @@
         <v>88.07989999999999</v>
       </c>
       <c r="F5">
-        <v>46.76861572265625</v>
+        <v>46.76860809326172</v>
       </c>
       <c r="G5">
         <v>120</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>78.9395751953125</v>
+        <v>78.93955993652344</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>97.0509</v>
       </c>
       <c r="F8">
-        <v>41.49979782104492</v>
+        <v>41.49979400634766</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>94.1598</v>
       </c>
       <c r="F10">
-        <v>4.742195606231689</v>
+        <v>4.74219274520874</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>96.3742</v>
       </c>
       <c r="F12">
-        <v>71.97975921630859</v>
+        <v>71.97976684570312</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.71046257019043</v>
+        <v>18.71045684814453</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>79.6208</v>
       </c>
       <c r="F18">
-        <v>19.79474067687988</v>
+        <v>19.79473686218262</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>76.06414794921875</v>
+        <v>76.06415557861328</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-4.31623649597168</v>
+        <v>-4.31623363494873</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>48.1493</v>
       </c>
       <c r="F24">
-        <v>67.75093841552734</v>
+        <v>67.75093078613281</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>92.7298</v>
       </c>
       <c r="F25">
-        <v>14.5609884262085</v>
+        <v>14.56098461151123</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>87.8788</v>
       </c>
       <c r="F31">
-        <v>8.992487907409668</v>
+        <v>8.992481231689453</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>96.6305</v>
       </c>
       <c r="F46">
-        <v>26.40984153747559</v>
+        <v>26.40983581542969</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>91.9205</v>
       </c>
       <c r="F49">
-        <v>30.62688064575195</v>
+        <v>30.62687683105469</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>93.2159</v>
       </c>
       <c r="F63">
-        <v>30.95647811889648</v>
+        <v>30.95648002624512</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>5.340054988861084</v>
+        <v>5.340048789978027</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>34.56634902954102</v>
+        <v>34.56634521484375</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>27.38255310058594</v>
+        <v>27.38254928588867</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>26.44375038146973</v>
+        <v>26.44374465942383</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>92.4842</v>
       </c>
       <c r="F87">
-        <v>54.60414123535156</v>
+        <v>54.60413360595703</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>92.1071</v>
       </c>
       <c r="F91">
-        <v>24.19018363952637</v>
+        <v>24.19017791748047</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>47.54854965209961</v>
+        <v>47.54855346679688</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>34.91579818725586</v>
+        <v>34.91579055786133</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>83.20180000000001</v>
       </c>
       <c r="F99">
-        <v>10.52472496032715</v>
+        <v>10.5247220993042</v>
       </c>
     </row>
     <row r="100" spans="1:6">
